--- a/targets/RVE_1_40_D/PH/nonlinear_uniaxial_TD/PH1.xlsx
+++ b/targets/RVE_1_40_D/PH/nonlinear_uniaxial_TD/PH1.xlsx
@@ -1,37 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Crystal-Plasticity-COE-Course\targets\RVE_1_40_D\PH\nonlinear_uniaxial_TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Crystal-Plasticity-Journal-Project\targets\RVE_1_40_D\PH\nonlinear_uniaxial_TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7703795-8FCF-4613-B805-9C12B8484E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0E405-2773-4114-A723-EDD462DCF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1380" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>exp_strain</t>
-  </si>
-  <si>
-    <t>exp_stress</t>
   </si>
   <si>
     <t>fitted_strain</t>
   </si>
   <si>
-    <t>fitted_stress</t>
+    <t>exp_stress (MPa)</t>
+  </si>
+  <si>
+    <t>fitted_stress (MPa)</t>
+  </si>
+  <si>
+    <t>exp_stress (Pa)</t>
+  </si>
+  <si>
+    <t>fitted_stress (Pa)</t>
   </si>
 </sst>
 </file>
@@ -80,12 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -95,7 +113,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -404,3402 +421,4539 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D312"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D66"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5.5300350639999996E-2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.06</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>194.32387319953401</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>194323873.199534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5.5438537749999996E-2</v>
       </c>
       <c r="B3" s="1">
         <v>13.7203225</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
+        <v>13720322.5</v>
+      </c>
+      <c r="D3">
         <v>6.2E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>202.55888827088401</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>202558888.27088401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.56379085E-2</v>
       </c>
       <c r="B4" s="1">
         <v>23.2868368</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
+        <v>23286836.800000001</v>
+      </c>
+      <c r="D4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>209.063907740274</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>209063907.74027401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5.5870562719999996E-2</v>
       </c>
       <c r="B5" s="1">
         <v>38.286836800000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
+        <v>38286836.800000004</v>
+      </c>
+      <c r="D5">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>214.471248260571</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>214471248.260571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5.6021405220000001E-2</v>
       </c>
       <c r="B6" s="1">
         <v>53.2636878</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
+        <v>53263687.799999997</v>
+      </c>
+      <c r="D6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>219.11568316212001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>219115683.16212001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5.6158494829999996E-2</v>
       </c>
       <c r="B7" s="1">
         <v>60.3414109</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
+        <v>60341410.899999999</v>
+      </c>
+      <c r="D7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>223.19696106368301</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>223196961.063683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5.6281043900000001E-2</v>
       </c>
       <c r="B8" s="1">
         <v>73.245009199999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
+        <v>73245009.200000003</v>
+      </c>
+      <c r="D8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>226.84429324580299</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>226844293.245803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5.6397623599999995E-2</v>
       </c>
       <c r="B9" s="1">
         <v>81.158693700000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
+        <v>81158693.700000003</v>
+      </c>
+      <c r="D9">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>230.146300325721</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>230146300.325721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5.6526872920000006E-2</v>
       </c>
       <c r="B10" s="1">
         <v>87.827160199999994</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
+        <v>87827160.199999988</v>
+      </c>
+      <c r="D10">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>233.166527099734</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>233166527.09973401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5.6642258710000004E-2</v>
       </c>
       <c r="B11" s="1">
         <v>96.993617099999994</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
+        <v>96993617.099999994</v>
+      </c>
+      <c r="D11">
         <v>7.8E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>235.952159861002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>235952159.861002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5.6731633400000002E-2</v>
       </c>
       <c r="B12" s="1">
         <v>107.8247918</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
+        <v>107824791.8</v>
+      </c>
+      <c r="D12">
         <v>0.08</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>238.53924191178601</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>238539241.91178602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5.6875152809999996E-2</v>
       </c>
       <c r="B13" s="1">
         <v>112.8362321</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
+        <v>112836232.10000001</v>
+      </c>
+      <c r="D13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>240.955954563543</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>240955954.56354299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5.7014027589999995E-2</v>
       </c>
       <c r="B14" s="1">
         <v>122.01270700000001</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
+        <v>122012707</v>
+      </c>
+      <c r="D14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>243.22476772383101</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>243224767.723831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5.7137670350000003E-2</v>
       </c>
       <c r="B15" s="1">
         <v>130.77363399999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
+        <v>130773633.99999999</v>
+      </c>
+      <c r="D15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>245.36389870104699</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>245363898.701047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5.7269253569999998E-2</v>
       </c>
       <c r="B16" s="1">
         <v>139.53823700000001</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
+        <v>139538237</v>
+      </c>
+      <c r="D16">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>247.388330937517</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>247388330.93751699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5.7413623569999996E-2</v>
       </c>
       <c r="B17" s="1">
         <v>141.225551</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
+        <v>141225551</v>
+      </c>
+      <c r="D17">
         <v>0.09</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>249.31054341132699</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>249310543.41132697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5.7550819659999995E-2</v>
       </c>
       <c r="B18" s="1">
         <v>151.66206099999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
+        <v>151662061</v>
+      </c>
+      <c r="D18">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>251.14104432968901</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>251141044.329689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5.7719196710000004E-2</v>
       </c>
       <c r="B19" s="1">
         <v>154.60204899999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
+        <v>154602049</v>
+      </c>
+      <c r="D19">
         <v>9.4E-2</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>252.888769122924</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>252888769.122924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5.7876852399999998E-2</v>
       </c>
       <c r="B20" s="1">
         <v>158.79185799999999</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
+        <v>158791858</v>
+      </c>
+      <c r="D20">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>254.561382276405</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>254561382.27640501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5.8068343130000005E-2</v>
       </c>
       <c r="B21" s="1">
         <v>166.73977099999999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
+        <v>166739771</v>
+      </c>
+      <c r="D21">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>256.16550968987599</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>256165509.68987599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5.8289640980000001E-2</v>
       </c>
       <c r="B22" s="1">
         <v>173.44456700000001</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
+        <v>173444567</v>
+      </c>
+      <c r="D22">
         <v>0.1</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>257.70691997345301</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>257706919.97345302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5.8576739770000004E-2</v>
       </c>
       <c r="B23" s="1">
         <v>175.99233599999999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
+        <v>175992336</v>
+      </c>
+      <c r="D23">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>259.190667625618</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>259190667.62561801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5.8776257899999997E-2</v>
       </c>
       <c r="B24" s="1">
         <v>181.03025</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
+        <v>181030250</v>
+      </c>
+      <c r="D24">
         <v>0.104</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>260.62120735586001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>260621207.35585999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5.9024554649999998E-2</v>
       </c>
       <c r="B25" s="1">
         <v>186.91298499999999</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
+        <v>186912985</v>
+      </c>
+      <c r="D25">
         <v>0.106</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>262.00248628449299</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>262002486.284493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5.936623454E-2</v>
       </c>
       <c r="B26" s="1">
         <v>185.71921499999999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
+        <v>185719215</v>
+      </c>
+      <c r="D26">
         <v>0.108</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>263.33801898369302</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>263338018.983693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5.9628961199999997E-2</v>
       </c>
       <c r="B27" s="1">
         <v>192.02656300000001</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
+        <v>192026563</v>
+      </c>
+      <c r="D27">
         <v>0.11</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>264.630949067936</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>264630949.067936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5.9964876949999996E-2</v>
       </c>
       <c r="B28" s="1">
         <v>195.42694</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
+        <v>195426940</v>
+      </c>
+      <c r="D28">
         <v>0.112</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>265.88410013725598</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>265884100.137256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>6.0344503170000001E-2</v>
       </c>
       <c r="B29" s="1">
         <v>194.24159499999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
+        <v>194241595</v>
+      </c>
+      <c r="D29">
         <v>0.114</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>267.10001821624297</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>267100018.21624297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>6.0756685150000003E-2</v>
       </c>
       <c r="B30" s="1">
         <v>201.00275400000001</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
+        <v>201002754</v>
+      </c>
+      <c r="D30">
         <v>0.11600000000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>268.281007343586</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>268281007.343586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6.1159394760000006E-2</v>
       </c>
       <c r="B31" s="1">
         <v>195.22304800000001</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
+        <v>195223048</v>
+      </c>
+      <c r="D31">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>269.42915960211701</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>269429159.602117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6.161390613E-2</v>
       </c>
       <c r="B32" s="1">
         <v>203.671177</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
+        <v>203671177</v>
+      </c>
+      <c r="D32">
         <v>0.12</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>270.54638060381598</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>270546380.60381597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6.1989577660000003E-2</v>
       </c>
       <c r="B33" s="1">
         <v>205.41550699999999</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
+        <v>205415507</v>
+      </c>
+      <c r="D33">
         <v>0.122</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>271.63441123406602</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>271634411.23406601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>6.2395808229999995E-2</v>
       </c>
       <c r="B34" s="1">
         <v>205.91091599999999</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
+        <v>205910916</v>
+      </c>
+      <c r="D34">
         <v>0.124</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>272.69484629773598</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>272694846.29773599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6.2807458440000005E-2</v>
       </c>
       <c r="B35" s="1">
         <v>208.50186600000001</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
+        <v>208501866</v>
+      </c>
+      <c r="D35">
         <v>0.126</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>273.72915058413503</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>273729150.58413506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6.324223323E-2</v>
       </c>
       <c r="B36" s="1">
         <v>206.07117199999999</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
+        <v>206071172</v>
+      </c>
+      <c r="D36">
         <v>0.128</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>274.73867276966701</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>274738672.76966703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6.3649504060000001E-2</v>
       </c>
       <c r="B37" s="1">
         <v>207.40583699999999</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
+        <v>207405837</v>
+      </c>
+      <c r="D37">
         <v>0.13</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>275.72465749962703</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>275724657.49962705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6.4104868699999998E-2</v>
       </c>
       <c r="B38" s="1">
         <v>214.20260200000001</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
+        <v>214202602</v>
+      </c>
+      <c r="D38">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>276.68825592908701</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>276688255.92908698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>6.4568715200000001E-2</v>
       </c>
       <c r="B39" s="1">
         <v>212.61581699999999</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
+        <v>212615817</v>
+      </c>
+      <c r="D39">
         <v>0.13400000000000001</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>277.63053495375902</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>277630534.95375901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>6.5014492800000004E-2</v>
       </c>
       <c r="B40" s="1">
         <v>212.70299399999999</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
+        <v>212702994</v>
+      </c>
+      <c r="D40">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>278.55248532222203</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>278552485.32222205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>6.5445445599999999E-2</v>
       </c>
       <c r="B41" s="1">
         <v>215.726786</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
+        <v>215726786</v>
+      </c>
+      <c r="D41">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>279.45502878896599</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>279455028.788966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>6.5918203999999994E-2</v>
       </c>
       <c r="B42" s="1">
         <v>214.56023300000001</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
+        <v>214560233</v>
+      </c>
+      <c r="D42">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>280.339024441731</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>280339024.44173098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>6.6355035300000004E-2</v>
       </c>
       <c r="B43" s="1">
         <v>215.48700199999999</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
+        <v>215487002</v>
+      </c>
+      <c r="D43">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>281.205274315395</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>281205274.315395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>6.6822477800000002E-2</v>
       </c>
       <c r="B44" s="1">
         <v>220.205105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
+        <v>220205105</v>
+      </c>
+      <c r="D44">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>282.05452838718202</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>282054528.387182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>6.7323555500000007E-2</v>
       </c>
       <c r="B45" s="1">
         <v>215.67882</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
+        <v>215678820</v>
+      </c>
+      <c r="D45">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>282.88748903357998</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>282887489.03358001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>6.7762415600000001E-2</v>
       </c>
       <c r="B46" s="1">
         <v>219.13287800000001</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
+        <v>219132878</v>
+      </c>
+      <c r="D46">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>283.70481501737299</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>283704815.01737297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>6.8159309700000004E-2</v>
       </c>
       <c r="B47" s="1">
         <v>221.31808899999999</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
+        <v>221318089</v>
+      </c>
+      <c r="D47">
         <v>0.15</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>284.50712506324402</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>284507125.06324404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>6.85898286E-2</v>
       </c>
       <c r="B48" s="1">
         <v>218.45702499999999</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
+        <v>218457025</v>
+      </c>
+      <c r="D48">
         <v>0.152</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>285.29500107207599</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>285295001.07207596</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6.9094005400000005E-2</v>
       </c>
       <c r="B49" s="1">
         <v>218.979581</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
+        <v>218979581</v>
+      </c>
+      <c r="D49">
         <v>0.154</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>286.06899101705801</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>286068991.01705801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>6.9601168500000005E-2</v>
       </c>
       <c r="B50" s="1">
         <v>217.816532</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
+        <v>217816532</v>
+      </c>
+      <c r="D50">
         <v>0.156</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>286.82961155881202</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>286829611.55881202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>7.008768189999999E-2</v>
       </c>
       <c r="B51" s="1">
         <v>223.39784900000001</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
+        <v>223397849</v>
+      </c>
+      <c r="D51">
         <v>0.158</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>287.57735041177398</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>287577350.41177398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7.05738952E-2</v>
       </c>
       <c r="B52" s="1">
         <v>225.607876</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
+        <v>225607876</v>
+      </c>
+      <c r="D52">
         <v>0.16</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>288.31266848978902</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>288312668.48978901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>7.1052611799999998E-2</v>
       </c>
       <c r="B53" s="1">
         <v>226.12931900000001</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
+        <v>226129319</v>
+      </c>
+      <c r="D53">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>289.03600185530001</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>289036001.85530001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>7.1511489400000003E-2</v>
       </c>
       <c r="B54" s="1">
         <v>224.112337</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
+        <v>224112337</v>
+      </c>
+      <c r="D54">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>289.74776349339601</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>289747763.49339598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>7.1991168300000005E-2</v>
       </c>
       <c r="B55" s="1">
         <v>225.90151700000001</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
+        <v>225901517</v>
+      </c>
+      <c r="D55">
         <v>0.16600000000000001</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>290.44834492934598</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>290448344.92934597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7.2308618899999996E-2</v>
       </c>
       <c r="B56" s="1">
         <v>225.12172899999999</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
+        <v>225121729</v>
+      </c>
+      <c r="D56">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>291.13811770597999</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>291138117.70598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7.2740819999999998E-2</v>
       </c>
       <c r="B57" s="1">
         <v>221.40428</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
+        <v>221404280</v>
+      </c>
+      <c r="D57">
         <v>0.17</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>291.81743473528201</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>291817434.735282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7.3227394900000006E-2</v>
       </c>
       <c r="B58" s="1">
         <v>225.734486</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
+        <v>225734486</v>
+      </c>
+      <c r="D58">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>292.48663153690501</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>292486631.53690499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7.3744740599999997E-2</v>
       </c>
       <c r="B59" s="1">
         <v>225.418083</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
+        <v>225418083</v>
+      </c>
+      <c r="D59">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>293.14602737479697</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>293146027.37479699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>7.42224561E-2</v>
       </c>
       <c r="B60" s="1">
         <v>227.21096199999999</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
+        <v>227210962</v>
+      </c>
+      <c r="D60">
         <v>0.17599999999999999</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>293.79592630190001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>293795926.30190003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7.4751090100000001E-2</v>
       </c>
       <c r="B61" s="1">
         <v>226.897133</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
+        <v>226897133</v>
+      </c>
+      <c r="D61">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>294.43661812171399</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>294436618.121714</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>7.5237628399999992E-2</v>
       </c>
       <c r="B62" s="1">
         <v>233.35808299999999</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
+        <v>233358083</v>
+      </c>
+      <c r="D62">
         <v>0.18</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>295.06837927458798</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>295068379.27458799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>7.5754483499999997E-2</v>
       </c>
       <c r="B63" s="1">
         <v>229.226494</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
+        <v>229226494</v>
+      </c>
+      <c r="D63">
         <v>0.182</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>295.69147365573002</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>295691473.65573001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>7.625854859999999E-2</v>
       </c>
       <c r="B64" s="1">
         <v>235.274068</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
+        <v>235274068</v>
+      </c>
+      <c r="D64">
         <v>0.184</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>296.306153371167</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>296306153.371167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>7.6748660999999996E-2</v>
       </c>
       <c r="B65" s="1">
         <v>232.40731700000001</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
+        <v>232407317</v>
+      </c>
+      <c r="D65">
         <v>0.186</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>296.91265943724801</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>296912659.43724799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>7.7090731100000004E-2</v>
       </c>
       <c r="B66" s="1">
         <v>234.17909900000001</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
+        <v>234179099</v>
+      </c>
+      <c r="D66">
         <v>0.187860744</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>297.46979830727298</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>297469798.30727297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>7.7340069600000005E-2</v>
       </c>
       <c r="B67" s="1">
         <v>234.232519</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="3">
+        <v>234232519</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>7.77684285E-2</v>
       </c>
       <c r="B68" s="1">
         <v>231.774011</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="3">
+        <v>231774011</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>7.8288161699999997E-2</v>
       </c>
       <c r="B69" s="1">
         <v>233.58511799999999</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="3">
+        <v>233585118</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7.8806984299999994E-2</v>
       </c>
       <c r="B70" s="1">
         <v>231.56845100000001</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="3">
+        <v>231568451</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>7.9314003100000002E-2</v>
       </c>
       <c r="B71" s="1">
         <v>235.932492</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="3">
+        <v>235932492</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>7.9798200499999999E-2</v>
       </c>
       <c r="B72" s="1">
         <v>234.33327299999999</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="3">
+        <v>234333273</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>8.0348313000000005E-2</v>
       </c>
       <c r="B73" s="1">
         <v>235.30314100000001</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="3">
+        <v>235303141</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>8.0835181400000011E-2</v>
       </c>
       <c r="B74" s="1">
         <v>237.965575</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="3">
+        <v>237965575</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>8.1344309500000003E-2</v>
       </c>
       <c r="B75" s="1">
         <v>240.635324</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="3">
+        <v>240635324</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>8.1876333199999998E-2</v>
       </c>
       <c r="B76" s="1">
         <v>240.75218000000001</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="3">
+        <v>240752180</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>8.2366028100000002E-2</v>
       </c>
       <c r="B77" s="1">
         <v>240.85973799999999</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="3">
+        <v>240859738</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>8.2791764899999995E-2</v>
       </c>
       <c r="B78" s="1">
         <v>247.787373</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="3">
+        <v>247787373</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>8.3091479699999998E-2</v>
       </c>
       <c r="B79" s="1">
         <v>241.446336</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="3">
+        <v>241446336</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>8.3366598299999997E-2</v>
       </c>
       <c r="B80" s="1">
         <v>241.93424999999999</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="3">
+        <v>241934250</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>8.3824918900000003E-2</v>
       </c>
       <c r="B81" s="1">
         <v>239.04236499999999</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="3">
+        <v>239042365</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>8.4363408200000004E-2</v>
       </c>
       <c r="B82" s="1">
         <v>240.870664</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="3">
+        <v>240870664</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8.4840611699999999E-2</v>
       </c>
       <c r="B83" s="1">
         <v>243.543182</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="3">
+        <v>243543182</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>8.5378737900000001E-2</v>
       </c>
       <c r="B84" s="1">
         <v>243.66249500000001</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="3">
+        <v>243662495</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>8.5849635899999999E-2</v>
       </c>
       <c r="B85" s="1">
         <v>241.62488999999999</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="3">
+        <v>241624890</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>8.6415626999999995E-2</v>
       </c>
       <c r="B86" s="1">
         <v>239.17738199999999</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="3">
+        <v>239177382</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>8.6892804500000004E-2</v>
       </c>
       <c r="B87" s="1">
         <v>245.28469999999999</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="3">
+        <v>245284700</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>8.7465610399999991E-2</v>
       </c>
       <c r="B88" s="1">
         <v>244.55426900000001</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="3">
+        <v>244554269</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>8.7938607000000002E-2</v>
       </c>
       <c r="B89" s="1">
         <v>248.09349599999999</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="3">
+        <v>248093496</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>8.8492411900000012E-2</v>
       </c>
       <c r="B90" s="1">
         <v>246.50035600000001</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="3">
+        <v>246500356</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>8.8976344499999999E-2</v>
       </c>
       <c r="B91" s="1">
         <v>250.04626300000001</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="3">
+        <v>250046263</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>8.9497387600000006E-2</v>
       </c>
       <c r="B92" s="1">
         <v>248.44493299999999</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="3">
+        <v>248444933</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>8.9893995800000001E-2</v>
       </c>
       <c r="B93" s="1">
         <v>251.97500400000001</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="3">
+        <v>251975004</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>9.01820386E-2</v>
       </c>
       <c r="B94" s="1">
         <v>254.19190800000001</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="3">
+        <v>254191908</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>9.0342179599999989E-2</v>
       </c>
       <c r="B95" s="1">
         <v>249.49593200000001</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="3">
+        <v>249495932</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>9.0705548900000002E-2</v>
       </c>
       <c r="B96" s="1">
         <v>248.717321</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="3">
+        <v>248717321</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>9.1158713700000005E-2</v>
       </c>
       <c r="B97" s="1">
         <v>244.51342199999999</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="3">
+        <v>244513422</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>9.1747896600000003E-2</v>
       </c>
       <c r="B98" s="1">
         <v>250.244879</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="3">
+        <v>250244879</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>9.2276100799999997E-2</v>
       </c>
       <c r="B99" s="1">
         <v>248.64034100000001</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="3">
+        <v>248640341</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>9.2844141300000002E-2</v>
       </c>
       <c r="B100" s="1">
         <v>254.375159</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="3">
+        <v>254375159</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>9.3276339200000002E-2</v>
       </c>
       <c r="B101" s="1">
         <v>252.74880999999999</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="3">
+        <v>252748810</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>9.3865919200000009E-2</v>
       </c>
       <c r="B102" s="1">
         <v>252.45196200000001</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="3">
+        <v>252451962</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>9.4347699300000004E-2</v>
       </c>
       <c r="B103" s="1">
         <v>254.289706</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="3">
+        <v>254289706</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>9.49154262E-2</v>
       </c>
       <c r="B104" s="1">
         <v>247.93779799999999</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="3">
+        <v>247937798</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>9.5403363100000013E-2</v>
       </c>
       <c r="B105" s="1">
         <v>252.370688</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="3">
+        <v>252370688</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>9.5925521699999988E-2</v>
       </c>
       <c r="B106" s="1">
         <v>257.680745</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="3">
+        <v>257680745</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>9.6452218199999995E-2</v>
       </c>
       <c r="B107" s="1">
         <v>251.74416299999999</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="3">
+        <v>251744163</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9.6955791399999991E-2</v>
       </c>
       <c r="B108" s="1">
         <v>257.920726</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="3">
+        <v>257920726</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>9.7465211800000007E-2</v>
       </c>
       <c r="B109" s="1">
         <v>259.77228600000001</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="3">
+        <v>259772286</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>9.7963492399999991E-2</v>
       </c>
       <c r="B110" s="1">
         <v>258.58888200000001</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="3">
+        <v>258588882</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>9.8399004100000007E-2</v>
       </c>
       <c r="B111" s="1">
         <v>259.99134500000002</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="3">
+        <v>259991345.00000003</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>9.877806380000001E-2</v>
       </c>
       <c r="B112" s="1">
         <v>260.94781</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="3">
+        <v>260947810</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>9.9013561999999999E-2</v>
       </c>
       <c r="B113" s="1">
         <v>257.96617400000002</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="3">
+        <v>257966174.00000003</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>9.9123024899999995E-2</v>
       </c>
       <c r="B114" s="1">
         <v>254.08640299999999</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="3">
+        <v>254086403</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>9.9550969400000008E-2</v>
       </c>
       <c r="B115" s="1">
         <v>254.61839900000001</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="3">
+        <v>254618399</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.1000303999</v>
       </c>
       <c r="B116" s="1">
         <v>259.93976600000002</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="3">
+        <v>259939766.00000003</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.10049858410000001</v>
       </c>
       <c r="B117" s="1">
         <v>262.65631200000001</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="3">
+        <v>262656312</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.10110352369999999</v>
       </c>
       <c r="B118" s="1">
         <v>256.27844199999998</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="3">
+        <v>256278441.99999997</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.10160187430000001</v>
       </c>
       <c r="B119" s="1">
         <v>261.17765200000002</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="3">
+        <v>261177652.00000003</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.10208851749999999</v>
       </c>
       <c r="B120" s="1">
         <v>258.24600199999998</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="3">
+        <v>258246001.99999997</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.10269386430000001</v>
       </c>
       <c r="B121" s="1">
         <v>259.69269200000002</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="3">
+        <v>259692692.00000003</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.103176057</v>
       </c>
       <c r="B122" s="1">
         <v>263.28998100000001</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="3">
+        <v>263289981</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.10369674270000001</v>
       </c>
       <c r="B123" s="1">
         <v>260.79833400000001</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="3">
+        <v>260798334</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.10426493219999999</v>
       </c>
       <c r="B124" s="1">
         <v>261.36743899999999</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="3">
+        <v>261367439</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.1047819049</v>
       </c>
       <c r="B125" s="1">
         <v>259.30739999999997</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="3">
+        <v>259307399.99999997</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.105278054</v>
       </c>
       <c r="B126" s="1">
         <v>264.22392300000001</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="3">
+        <v>264223923</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.1057896455</v>
       </c>
       <c r="B127" s="1">
         <v>262.59848599999998</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="3">
+        <v>262598485.99999997</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.10636915139999999</v>
       </c>
       <c r="B128" s="1">
         <v>262.734914</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="3">
+        <v>262734914</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.10687995559999999</v>
       </c>
       <c r="B129" s="1">
         <v>262.41803399999998</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="3">
+        <v>262418033.99999997</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.10738339359999999</v>
       </c>
       <c r="B130" s="1">
         <v>264.28571799999997</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="3">
+        <v>264285717.99999997</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.10789257960000001</v>
       </c>
       <c r="B131" s="1">
         <v>263.531116</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="3">
+        <v>263531116</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.1084109316</v>
       </c>
       <c r="B132" s="1">
         <v>267.15552300000002</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="3">
+        <v>267155523.00000003</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.1089222479</v>
       </c>
       <c r="B133" s="1">
         <v>267.71579000000003</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="3">
+        <v>267715790.00000003</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.1094163318</v>
       </c>
       <c r="B134" s="1">
         <v>263.89047299999999</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="3">
+        <v>263890473</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.10984572149999999</v>
       </c>
       <c r="B135" s="1">
         <v>271.00558999999998</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="3">
+        <v>271005590</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.1102367969</v>
       </c>
       <c r="B136" s="1">
         <v>267.15366499999999</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="3">
+        <v>267153665</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.11055024299999999</v>
       </c>
       <c r="B137" s="1">
         <v>269.86044800000002</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="3">
+        <v>269860448</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.1108347272</v>
       </c>
       <c r="B138" s="1">
         <v>267.73519299999998</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="3">
+        <v>267735192.99999997</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.11123434010000001</v>
       </c>
       <c r="B139" s="1">
         <v>263.00239800000003</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="3">
+        <v>263002398.00000003</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.11166176439999999</v>
       </c>
       <c r="B140" s="1">
         <v>264.420028</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="3">
+        <v>264420028</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.1121729986</v>
       </c>
       <c r="B141" s="1">
         <v>265.85859099999999</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="3">
+        <v>265858591</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.11270546590000001</v>
       </c>
       <c r="B142" s="1">
         <v>264.66617100000002</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="3">
+        <v>264666171.00000003</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.1132587951</v>
       </c>
       <c r="B143" s="1">
         <v>262.15796899999998</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="3">
+        <v>262157968.99999997</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.1137748319</v>
       </c>
       <c r="B144" s="1">
         <v>267.11835200000002</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="3">
+        <v>267118352.00000003</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.11430336990000001</v>
       </c>
       <c r="B145" s="1">
         <v>269.88539700000001</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="3">
+        <v>269885397</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.11489796849999999</v>
       </c>
       <c r="B146" s="1">
         <v>266.50463300000001</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="3">
+        <v>266504633</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.11540001139999999</v>
       </c>
       <c r="B147" s="1">
         <v>267.06432999999998</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="3">
+        <v>267064329.99999997</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.115932672</v>
       </c>
       <c r="B148" s="1">
         <v>268.51351499999998</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="3">
+        <v>268513515</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.11652623379999999</v>
       </c>
       <c r="B149" s="1">
         <v>262.47927099999998</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="3">
+        <v>262479270.99999997</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.1170515166</v>
       </c>
       <c r="B150" s="1">
         <v>268.33927399999999</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="3">
+        <v>268339274</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.1175165837</v>
       </c>
       <c r="B151" s="1">
         <v>268.45011199999999</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="3">
+        <v>268450112</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.1180352673</v>
       </c>
       <c r="B152" s="1">
         <v>268.13196299999998</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="3">
+        <v>268131962.99999997</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.11860109639999999</v>
       </c>
       <c r="B153" s="1">
         <v>273.12859200000003</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="3">
+        <v>273128592</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.1191877038</v>
       </c>
       <c r="B154" s="1">
         <v>271.944098</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="3">
+        <v>271944098</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.1197517666</v>
       </c>
       <c r="B155" s="1">
         <v>272.965127</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="3">
+        <v>272965127</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.12027992</v>
       </c>
       <c r="B156" s="1">
         <v>274.863767</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="3">
+        <v>274863767</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.12076505160000001</v>
       </c>
       <c r="B157" s="1">
         <v>269.66721200000001</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="3">
+        <v>269667212</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.12134537440000001</v>
       </c>
       <c r="B158" s="1">
         <v>269.80576000000002</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="3">
+        <v>269805760</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.1219412351</v>
       </c>
       <c r="B159" s="1">
         <v>268.174466</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="3">
+        <v>268174466</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.1223841899</v>
       </c>
       <c r="B160" s="1">
         <v>273.60234400000002</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="3">
+        <v>273602344</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.1229055251</v>
       </c>
       <c r="B161" s="1">
         <v>277.27884599999999</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="3">
+        <v>277278846</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.12344155230000001</v>
       </c>
       <c r="B162" s="1">
         <v>275.19032600000003</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="3">
+        <v>275190326</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.12399562610000001</v>
       </c>
       <c r="B163" s="1">
         <v>272.21545200000003</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="3">
+        <v>272215452</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.12446510249999999</v>
       </c>
       <c r="B164" s="1">
         <v>279.88372399999997</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="3">
+        <v>279883724</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.12501826660000001</v>
       </c>
       <c r="B165" s="1">
         <v>277.79728399999999</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="3">
+        <v>277797284</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.1255136295</v>
       </c>
       <c r="B166" s="1">
         <v>273.91499900000002</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="3">
+        <v>273914999</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.12605841579999999</v>
       </c>
       <c r="B167" s="1">
         <v>279.83291200000002</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="3">
+        <v>279832912</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.1265635967</v>
       </c>
       <c r="B168" s="1">
         <v>276.84056600000002</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="3">
+        <v>276840566</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.1268229656</v>
       </c>
       <c r="B169" s="1">
         <v>268.88642199999998</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="3">
+        <v>268886422</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.12713325180000001</v>
       </c>
       <c r="B170" s="1">
         <v>275.643011</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="3">
+        <v>275643011</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.12748651759999999</v>
       </c>
       <c r="B171" s="1">
         <v>271.71760499999999</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="3">
+        <v>271717605</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.1279445632</v>
       </c>
       <c r="B172" s="1">
         <v>271.82715000000002</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="3">
+        <v>271827150</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.12846780459999999</v>
       </c>
       <c r="B173" s="1">
         <v>271.50619</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="3">
+        <v>271506190</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.129080784</v>
       </c>
       <c r="B174" s="1">
         <v>272.09888599999999</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="3">
+        <v>272098886</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.12960513809999999</v>
       </c>
       <c r="B175" s="1">
         <v>271.33114999999998</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="3">
+        <v>271331150</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.13013491090000001</v>
       </c>
       <c r="B176" s="1">
         <v>273.69135899999998</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="3">
+        <v>273691359</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.13064178030000001</v>
       </c>
       <c r="B177" s="1">
         <v>273.81321300000002</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="3">
+        <v>273813213</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.13117011180000002</v>
       </c>
       <c r="B178" s="1">
         <v>271.70412700000003</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="3">
+        <v>271704127</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.13167193569999999</v>
       </c>
       <c r="B179" s="1">
         <v>274.50829399999998</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="3">
+        <v>274508294</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.1322645932</v>
       </c>
       <c r="B180" s="1">
         <v>274.65101700000002</v>
       </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="3">
+        <v>274651017</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.13286344980000001</v>
       </c>
       <c r="B181" s="1">
         <v>276.139002</v>
       </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="3">
+        <v>276139002</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.13340215629999999</v>
       </c>
       <c r="B182" s="1">
         <v>274.47681699999998</v>
       </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="3">
+        <v>274476817</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.13390201739999999</v>
       </c>
       <c r="B183" s="1">
         <v>276.83875599999999</v>
       </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="3">
+        <v>276838756</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.13443353289999999</v>
       </c>
       <c r="B184" s="1">
         <v>276.07048800000001</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="3">
+        <v>276070488</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.13496382439999999</v>
       </c>
       <c r="B185" s="1">
         <v>278.44260800000001</v>
       </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="3">
+        <v>278442608</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.13549684640000001</v>
       </c>
       <c r="B186" s="1">
         <v>283.062681</v>
       </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="3">
+        <v>283062681</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.1360351148</v>
       </c>
       <c r="B187" s="1">
         <v>279.60218800000001</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="3">
+        <v>279602188</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.13656819689999999</v>
       </c>
       <c r="B188" s="1">
         <v>280.63147800000002</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="3">
+        <v>280631478</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.13710850120000001</v>
       </c>
       <c r="B189" s="1">
         <v>281.21374700000001</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="3">
+        <v>281213747</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.1376515069</v>
       </c>
       <c r="B190" s="1">
         <v>281.347218</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="3">
+        <v>281347218</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.13820074910000002</v>
       </c>
       <c r="B191" s="1">
         <v>282.83263899999997</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="3">
+        <v>282832639</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.13884965859999998</v>
       </c>
       <c r="B192" s="1">
         <v>279.84009200000003</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="3">
+        <v>279840092</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.1392760509</v>
       </c>
       <c r="B193" s="1">
         <v>282.19711899999999</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="3">
+        <v>282197119</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.1398279144</v>
       </c>
       <c r="B194" s="1">
         <v>281.43136800000002</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="3">
+        <v>281431368</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.14036798080000001</v>
       </c>
       <c r="B195" s="1">
         <v>282.01493199999999</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="3">
+        <v>282014932</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.14092602369999999</v>
       </c>
       <c r="B196" s="1">
         <v>283.05464000000001</v>
       </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="3">
+        <v>283054640</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.14143806910000001</v>
       </c>
       <c r="B197" s="1">
         <v>284.08389299999999</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="3">
+        <v>284083893</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.14196258070000001</v>
       </c>
       <c r="B198" s="1">
         <v>283.76198900000003</v>
       </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="3">
+        <v>283761989</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.1425187259</v>
       </c>
       <c r="B199" s="1">
         <v>282.091656</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="3">
+        <v>282091656</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.14305229649999998</v>
       </c>
       <c r="B200" s="1">
         <v>284.93550699999997</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="3">
+        <v>284935507</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.14357763770000001</v>
       </c>
       <c r="B201" s="1">
         <v>284.61335500000001</v>
       </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="3">
+        <v>284613355</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.1441169719</v>
       </c>
       <c r="B202" s="1">
         <v>287.46239200000002</v>
       </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="1"/>
-    </row>
-    <row r="203" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="3">
+        <v>287462392</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.14465973229999998</v>
       </c>
       <c r="B203" s="1">
         <v>286.23959500000001</v>
       </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="1"/>
-    </row>
-    <row r="204" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="3">
+        <v>286239595</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.14521869239999999</v>
       </c>
       <c r="B204" s="1">
         <v>285.92556000000002</v>
       </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="1"/>
-    </row>
-    <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="3">
+        <v>285925560</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.1457531953</v>
       </c>
       <c r="B205" s="1">
         <v>287.87137200000001</v>
       </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="1"/>
-    </row>
-    <row r="206" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="3">
+        <v>287871372</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.14631172670000001</v>
       </c>
       <c r="B206" s="1">
         <v>286.19695200000001</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="1"/>
-    </row>
-    <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="3">
+        <v>286196952</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.1468480835</v>
       </c>
       <c r="B207" s="1">
         <v>284.06147900000002</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="1"/>
-    </row>
-    <row r="208" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="3">
+        <v>284061479</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.1473938534</v>
       </c>
       <c r="B208" s="1">
         <v>287.82750399999998</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="3">
+        <v>287827504</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.14791089760000001</v>
       </c>
       <c r="B209" s="1">
         <v>285.68567400000001</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="1"/>
-    </row>
-    <row r="210" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="3">
+        <v>285685674</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.14846853669999999</v>
       </c>
       <c r="B210" s="1">
         <v>285.36926599999998</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="1"/>
-    </row>
-    <row r="211" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="3">
+        <v>285369266</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.1487161373</v>
       </c>
       <c r="B211" s="1">
         <v>285.43043499999999</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="1"/>
-    </row>
-    <row r="212" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="3">
+        <v>285430435</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.14897118909999998</v>
       </c>
       <c r="B212" s="1">
         <v>285.94805600000001</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="1"/>
-    </row>
-    <row r="213" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="3">
+        <v>285948056</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.1492671331</v>
       </c>
       <c r="B213" s="1">
         <v>288.74969299999998</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="3">
+        <v>288749693</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.1497203288</v>
       </c>
       <c r="B214" s="1">
         <v>285.678518</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="3">
+        <v>285678518</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.1502196881</v>
       </c>
       <c r="B215" s="1">
         <v>285.80188299999998</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="3">
+        <v>285801883</v>
+      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.15074443909999999</v>
       </c>
       <c r="B216" s="1">
         <v>289.574298</v>
       </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="3">
+        <v>289574298</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.15129842910000002</v>
       </c>
       <c r="B217" s="1">
         <v>289.25742300000002</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="3">
+        <v>289257423</v>
+      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.15186024770000001</v>
       </c>
       <c r="B218" s="1">
         <v>286.207178</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="3">
+        <v>286207178</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.15243602219999999</v>
       </c>
       <c r="B219" s="1">
         <v>289.997817</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="3">
+        <v>289997817</v>
+      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.15297909940000001</v>
       </c>
       <c r="B220" s="1">
         <v>288.30868700000002</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="3">
+        <v>288308687</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.1535458841</v>
       </c>
       <c r="B221" s="1">
         <v>286.62360999999999</v>
       </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="3">
+        <v>286623610</v>
+      </c>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.154081569</v>
       </c>
       <c r="B222" s="1">
         <v>288.58287999999999</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="223" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="3">
+        <v>288582880</v>
+      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.15464666700000002</v>
       </c>
       <c r="B223" s="1">
         <v>285.98162100000002</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="3">
+        <v>285981621</v>
+      </c>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.15516802200000002</v>
       </c>
       <c r="B224" s="1">
         <v>285.65280300000001</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="1"/>
-    </row>
-    <row r="225" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="3">
+        <v>285652803</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.155725423</v>
       </c>
       <c r="B225" s="1">
         <v>286.24722800000001</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="1"/>
-    </row>
-    <row r="226" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="3">
+        <v>286247228</v>
+      </c>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.15623795100000001</v>
       </c>
       <c r="B226" s="1">
         <v>287.74630500000001</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="3">
+        <v>287746305</v>
+      </c>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.15679332900000001</v>
       </c>
       <c r="B227" s="1">
         <v>284.67872999999997</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="3">
+        <v>284678730</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.15735784799999999</v>
       </c>
       <c r="B228" s="1">
         <v>289.85581000000002</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="3">
+        <v>289855810</v>
+      </c>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.15797746399999998</v>
       </c>
       <c r="B229" s="1">
         <v>287.71841899999998</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="3">
+        <v>287718419</v>
+      </c>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.15851811100000002</v>
       </c>
       <c r="B230" s="1">
         <v>280.05621300000001</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="3">
+        <v>280056213</v>
+      </c>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.159069075</v>
       </c>
       <c r="B231" s="1">
         <v>283.85886599999998</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-    </row>
-    <row r="232" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="3">
+        <v>283858866</v>
+      </c>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.15961071900000001</v>
       </c>
       <c r="B232" s="1">
         <v>286.285796</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="1"/>
-    </row>
-    <row r="233" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="3">
+        <v>286285796</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.16015138300000001</v>
       </c>
       <c r="B233" s="1">
         <v>287.336973</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="3">
+        <v>287336973</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.16069533700000002</v>
       </c>
       <c r="B234" s="1">
         <v>287.93038300000001</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="1"/>
-    </row>
-    <row r="235" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="3">
+        <v>287930383</v>
+      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.16122193400000001</v>
       </c>
       <c r="B235" s="1">
         <v>285.302074</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="1"/>
-    </row>
-    <row r="236" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="3">
+        <v>285302074</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.161746787</v>
       </c>
       <c r="B236" s="1">
         <v>285.89012700000001</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="3">
+        <v>285890127</v>
+      </c>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.162294559</v>
       </c>
       <c r="B237" s="1">
         <v>286.94437299999998</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="3">
+        <v>286944373</v>
+      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.162865909</v>
       </c>
       <c r="B238" s="1">
         <v>284.78267499999998</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="1"/>
-    </row>
-    <row r="239" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="3">
+        <v>284782675</v>
+      </c>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.163528381</v>
       </c>
       <c r="B239" s="1">
         <v>286.32582600000001</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="1"/>
-    </row>
-    <row r="240" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="3">
+        <v>286325826</v>
+      </c>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.16408094299999998</v>
       </c>
       <c r="B240" s="1">
         <v>282.31299799999999</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="1"/>
-    </row>
-    <row r="241" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="3">
+        <v>282312998</v>
+      </c>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.16460082600000001</v>
       </c>
       <c r="B241" s="1">
         <v>287.51029899999997</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="1"/>
-    </row>
-    <row r="242" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="3">
+        <v>287510299</v>
+      </c>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.16517134</v>
       </c>
       <c r="B242" s="1">
         <v>286.26628399999998</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="1"/>
-    </row>
-    <row r="243" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="3">
+        <v>286266284</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.165715112</v>
       </c>
       <c r="B243" s="1">
         <v>284.55278900000002</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="1"/>
-    </row>
-    <row r="244" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="3">
+        <v>284552789</v>
+      </c>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.16625356700000002</v>
       </c>
       <c r="B244" s="1">
         <v>283.29799400000002</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="1"/>
-    </row>
-    <row r="245" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="3">
+        <v>283297994</v>
+      </c>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.16678386100000001</v>
       </c>
       <c r="B245" s="1">
         <v>282.50190500000002</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="1"/>
-    </row>
-    <row r="246" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="3">
+        <v>282501905</v>
+      </c>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.16730524800000002</v>
       </c>
       <c r="B246" s="1">
         <v>287.249481</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="1"/>
-    </row>
-    <row r="247" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="3">
+        <v>287249481</v>
+      </c>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.167831853</v>
       </c>
       <c r="B247" s="1">
         <v>286.45338199999998</v>
       </c>
-      <c r="C247" s="2"/>
-      <c r="D247" s="1"/>
-    </row>
-    <row r="248" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="3">
+        <v>286453382</v>
+      </c>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.16829438400000002</v>
       </c>
       <c r="B248" s="1">
         <v>286.103478</v>
       </c>
-      <c r="C248" s="2"/>
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="3">
+        <v>286103478</v>
+      </c>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.16869199999999998</v>
       </c>
       <c r="B249" s="1">
         <v>288.05141800000001</v>
       </c>
-      <c r="C249" s="2"/>
-      <c r="D249" s="1"/>
-    </row>
-    <row r="250" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="3">
+        <v>288051418</v>
+      </c>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.169105329</v>
       </c>
       <c r="B250" s="1">
         <v>289.07861300000002</v>
       </c>
-      <c r="C250" s="2"/>
-      <c r="D250" s="1"/>
-    </row>
-    <row r="251" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="3">
+        <v>289078613</v>
+      </c>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.16944948600000001</v>
       </c>
       <c r="B251" s="1">
         <v>290.08943499999998</v>
       </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="1"/>
-    </row>
-    <row r="252" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="3">
+        <v>290089435</v>
+      </c>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.16989736899999999</v>
       </c>
       <c r="B252" s="1">
         <v>288.80999800000001</v>
       </c>
-      <c r="C252" s="2"/>
-      <c r="D252" s="1"/>
-    </row>
-    <row r="253" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="3">
+        <v>288809998</v>
+      </c>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.17040700099999997</v>
       </c>
       <c r="B253" s="1">
         <v>284.29994399999998</v>
       </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="1"/>
-    </row>
-    <row r="254" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="3">
+        <v>284299944</v>
+      </c>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.170936747</v>
       </c>
       <c r="B254" s="1">
         <v>289.52877899999999</v>
       </c>
-      <c r="C254" s="2"/>
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="3">
+        <v>289528779</v>
+      </c>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.17145265899999998</v>
       </c>
       <c r="B255" s="1">
         <v>290.58348100000001</v>
       </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="1"/>
-    </row>
-    <row r="256" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="3">
+        <v>290583481</v>
+      </c>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.17199622000000001</v>
       </c>
       <c r="B256" s="1">
         <v>289.32502699999998</v>
       </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="3">
+        <v>289325027</v>
+      </c>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.17254592399999999</v>
       </c>
       <c r="B257" s="1">
         <v>289.92431599999998</v>
       </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="1"/>
-    </row>
-    <row r="258" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="3">
+        <v>289924316</v>
+      </c>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.173086613</v>
       </c>
       <c r="B258" s="1">
         <v>291.45109000000002</v>
       </c>
-      <c r="C258" s="2"/>
-      <c r="D258" s="1"/>
-    </row>
-    <row r="259" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="3">
+        <v>291451090</v>
+      </c>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.17364416500000002</v>
       </c>
       <c r="B259" s="1">
         <v>288.33484499999997</v>
       </c>
-      <c r="C259" s="2"/>
-      <c r="D259" s="1"/>
-    </row>
-    <row r="260" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="3">
+        <v>288334845</v>
+      </c>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.17421742299999998</v>
       </c>
       <c r="B260" s="1">
         <v>288.00970699999999</v>
       </c>
-      <c r="C260" s="2"/>
-      <c r="D260" s="1"/>
-    </row>
-    <row r="261" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="3">
+        <v>288009707</v>
+      </c>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.17476207999999999</v>
       </c>
       <c r="B261" s="1">
         <v>287.67713500000002</v>
       </c>
-      <c r="C261" s="2"/>
-      <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="3">
+        <v>287677135</v>
+      </c>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.17531395100000002</v>
       </c>
       <c r="B262" s="1">
         <v>291.535799</v>
       </c>
-      <c r="C262" s="2"/>
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="3">
+        <v>291535799</v>
+      </c>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.17601683600000001</v>
       </c>
       <c r="B263" s="1">
         <v>288.44826999999998</v>
       </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="1"/>
-    </row>
-    <row r="264" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="3">
+        <v>288448270</v>
+      </c>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.17640086299999999</v>
       </c>
       <c r="B264" s="1">
         <v>292.26986499999998</v>
       </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="1"/>
-    </row>
-    <row r="265" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="3">
+        <v>292269865</v>
+      </c>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.17695049699999998</v>
       </c>
       <c r="B265" s="1">
         <v>290.07451099999997</v>
       </c>
-      <c r="C265" s="2"/>
-      <c r="D265" s="1"/>
-    </row>
-    <row r="266" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="3">
+        <v>290074511</v>
+      </c>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.17747691899999998</v>
       </c>
       <c r="B266" s="1">
         <v>288.80412899999999</v>
       </c>
-      <c r="C266" s="2"/>
-      <c r="D266" s="1"/>
-    </row>
-    <row r="267" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="3">
+        <v>288804129</v>
+      </c>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.178044495</v>
       </c>
       <c r="B267" s="1">
         <v>287.07573300000001</v>
       </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="1"/>
-    </row>
-    <row r="268" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="3">
+        <v>287075733</v>
+      </c>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.17857198400000002</v>
       </c>
       <c r="B268" s="1">
         <v>292.33933300000001</v>
       </c>
-      <c r="C268" s="2"/>
-      <c r="D268" s="1"/>
-    </row>
-    <row r="269" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="3">
+        <v>292339333</v>
+      </c>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.179111571</v>
       </c>
       <c r="B269" s="1">
         <v>295.27516400000002</v>
       </c>
-      <c r="C269" s="2"/>
-      <c r="D269" s="1"/>
-    </row>
-    <row r="270" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="3">
+        <v>295275164</v>
+      </c>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.17965043900000002</v>
       </c>
       <c r="B270" s="1">
         <v>291.20326699999998</v>
       </c>
-      <c r="C270" s="2"/>
-      <c r="D270" s="1"/>
-    </row>
-    <row r="271" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="3">
+        <v>291203267</v>
+      </c>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.18017163899999999</v>
       </c>
       <c r="B271" s="1">
         <v>290.86359700000003</v>
       </c>
-      <c r="C271" s="2"/>
-      <c r="D271" s="1"/>
-    </row>
-    <row r="272" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="3">
+        <v>290863597</v>
+      </c>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.18071005799999998</v>
       </c>
       <c r="B272" s="1">
         <v>296.60896200000002</v>
       </c>
-      <c r="C272" s="2"/>
-      <c r="D272" s="1"/>
-    </row>
-    <row r="273" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="3">
+        <v>296608962</v>
+      </c>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.181268869</v>
       </c>
       <c r="B273" s="1">
         <v>295.34457600000002</v>
       </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="1"/>
-    </row>
-    <row r="274" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="3">
+        <v>295344576</v>
+      </c>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.18180584899999999</v>
       </c>
       <c r="B274" s="1">
         <v>293.60515099999998</v>
       </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="1"/>
-    </row>
-    <row r="275" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="3">
+        <v>293605151</v>
+      </c>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.18235680899999998</v>
       </c>
       <c r="B275" s="1">
         <v>297.48904599999997</v>
       </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="1"/>
-    </row>
-    <row r="276" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="3">
+        <v>297489046</v>
+      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.18290059200000003</v>
       </c>
       <c r="B276" s="1">
         <v>293.87560400000001</v>
       </c>
-      <c r="C276" s="2"/>
-      <c r="D276" s="1"/>
-    </row>
-    <row r="277" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="3">
+        <v>293875604</v>
+      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.18347604300000001</v>
       </c>
       <c r="B277" s="1">
         <v>297.30032999999997</v>
       </c>
-      <c r="C277" s="2"/>
-      <c r="D277" s="1"/>
-    </row>
-    <row r="278" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="3">
+        <v>297300330</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.184018652</v>
       </c>
       <c r="B278" s="1">
         <v>298.84344499999997</v>
       </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="1"/>
-    </row>
-    <row r="279" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="3">
+        <v>298843445</v>
+      </c>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.184554568</v>
       </c>
       <c r="B279" s="1">
         <v>293.34544399999999</v>
       </c>
-      <c r="C279" s="2"/>
-      <c r="D279" s="1"/>
-    </row>
-    <row r="280" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="3">
+        <v>293345444</v>
+      </c>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.18509643000000001</v>
       </c>
       <c r="B280" s="1">
         <v>287.37392599999998</v>
       </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="1"/>
-    </row>
-    <row r="281" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="3">
+        <v>287373926</v>
+      </c>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.1856525</v>
       </c>
       <c r="B281" s="1">
         <v>292.67609099999999</v>
       </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="1"/>
-    </row>
-    <row r="282" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="3">
+        <v>292676091</v>
+      </c>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.18620018600000002</v>
       </c>
       <c r="B282" s="1">
         <v>298.45130699999999</v>
       </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="1"/>
-    </row>
-    <row r="283" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="3">
+        <v>298451307</v>
+      </c>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.18675956899999999</v>
       </c>
       <c r="B283" s="1">
         <v>295.76955500000003</v>
       </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="1"/>
-    </row>
-    <row r="284" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="3">
+        <v>295769555</v>
+      </c>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.18730950100000002</v>
       </c>
       <c r="B284" s="1">
         <v>298.72904499999999</v>
       </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="1"/>
-    </row>
-    <row r="285" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="3">
+        <v>298729045</v>
+      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.187860744</v>
       </c>
       <c r="B285" s="1">
         <v>298.86705899999998</v>
       </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="1"/>
-    </row>
-    <row r="286" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="3">
+        <v>298867059</v>
+      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.18839476699999999</v>
       </c>
       <c r="B286" s="1">
         <v>300.88468</v>
       </c>
-      <c r="C286" s="2"/>
-      <c r="D286" s="1"/>
-    </row>
-    <row r="287" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="3">
+        <v>300884680</v>
+      </c>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.18897188499999998</v>
       </c>
       <c r="B287" s="1">
         <v>297.73159600000002</v>
       </c>
-      <c r="C287" s="2"/>
-      <c r="D287" s="1"/>
-    </row>
-    <row r="288" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="3">
+        <v>297731596</v>
+      </c>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.18953458399999998</v>
       </c>
       <c r="B288" s="1">
         <v>296.92887200000001</v>
       </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="1"/>
-    </row>
-    <row r="289" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="3">
+        <v>296928872</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.190109322</v>
       </c>
       <c r="B289" s="1">
         <v>297.071575</v>
       </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="1"/>
-    </row>
-    <row r="290" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="3">
+        <v>297071575</v>
+      </c>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.19070077099999999</v>
       </c>
       <c r="B290" s="1">
         <v>289.66743200000002</v>
       </c>
-      <c r="C290" s="2"/>
-      <c r="D290" s="1"/>
-    </row>
-    <row r="291" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="3">
+        <v>289667432</v>
+      </c>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.191240296</v>
       </c>
       <c r="B291" s="1">
         <v>293.57509800000003</v>
       </c>
-      <c r="C291" s="2"/>
-      <c r="D291" s="1"/>
-    </row>
-    <row r="292" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="3">
+        <v>293575098</v>
+      </c>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.19180354000000002</v>
       </c>
       <c r="B292" s="1">
         <v>291.82349599999998</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="1"/>
-    </row>
-    <row r="293" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="3">
+        <v>291823496</v>
+      </c>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.192345455</v>
       </c>
       <c r="B293" s="1">
         <v>292.90059000000002</v>
       </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="1"/>
-    </row>
-    <row r="294" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="3">
+        <v>292900590</v>
+      </c>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.19289736800000001</v>
       </c>
       <c r="B294" s="1">
         <v>292.56248499999998</v>
       </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="1"/>
-    </row>
-    <row r="295" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="3">
+        <v>292562485</v>
+      </c>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.19344312</v>
       </c>
       <c r="B295" s="1">
         <v>292.69549799999999</v>
       </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="1"/>
-    </row>
-    <row r="296" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="3">
+        <v>292695498</v>
+      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.19424862699999998</v>
       </c>
       <c r="B296" s="1">
         <v>292.89182099999999</v>
       </c>
-      <c r="C296" s="2"/>
-      <c r="D296" s="1"/>
-    </row>
-    <row r="297" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="3">
+        <v>292891821</v>
+      </c>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.19453904999999999</v>
       </c>
       <c r="B297" s="1">
         <v>292.48907400000002</v>
       </c>
-      <c r="C297" s="2"/>
-      <c r="D297" s="1"/>
-    </row>
-    <row r="298" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="3">
+        <v>292489074</v>
+      </c>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.19506679699999999</v>
       </c>
       <c r="B298" s="1">
         <v>292.61748</v>
       </c>
-      <c r="C298" s="2"/>
-      <c r="D298" s="1"/>
-    </row>
-    <row r="299" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="3">
+        <v>292617480</v>
+      </c>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.19561727600000001</v>
       </c>
       <c r="B299" s="1">
         <v>294.64733100000001</v>
       </c>
-      <c r="C299" s="2"/>
-      <c r="D299" s="1"/>
-    </row>
-    <row r="300" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="3">
+        <v>294647331</v>
+      </c>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.19612923500000001</v>
       </c>
       <c r="B300" s="1">
         <v>296.669511</v>
       </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="3">
+        <v>296669511</v>
+      </c>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.19669725199999999</v>
       </c>
       <c r="B301" s="1">
         <v>298.23288200000002</v>
       </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="1"/>
-    </row>
-    <row r="302" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="3">
+        <v>298232882</v>
+      </c>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.19727024000000001</v>
       </c>
       <c r="B302" s="1">
         <v>294.10293000000001</v>
       </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="1"/>
-    </row>
-    <row r="303" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="3">
+        <v>294102930</v>
+      </c>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.197842183</v>
       </c>
       <c r="B303" s="1">
         <v>296.617076</v>
       </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="1"/>
-    </row>
-    <row r="304" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="3">
+        <v>296617076</v>
+      </c>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.19825835900000002</v>
       </c>
       <c r="B304" s="1">
         <v>297.66969599999999</v>
       </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="1"/>
-    </row>
-    <row r="305" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="3">
+        <v>297669696</v>
+      </c>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.19890893099999998</v>
       </c>
       <c r="B305" s="1">
         <v>295.45369099999999</v>
       </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="1"/>
-    </row>
-    <row r="306" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="3">
+        <v>295453691</v>
+      </c>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.199422657</v>
       </c>
       <c r="B306" s="1">
         <v>293.20174700000001</v>
       </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="1"/>
-    </row>
-    <row r="307" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="3">
+        <v>293201747</v>
+      </c>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.200008926</v>
       </c>
       <c r="B307" s="1">
         <v>296.19896</v>
       </c>
-      <c r="C307" s="2"/>
-      <c r="D307" s="1"/>
-    </row>
-    <row r="308" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="3">
+        <v>296198960</v>
+      </c>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.20062959299999999</v>
       </c>
       <c r="B308" s="1">
         <v>298.731562</v>
       </c>
-      <c r="C308" s="2"/>
-      <c r="D308" s="1"/>
-    </row>
-    <row r="309" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="3">
+        <v>298731562</v>
+      </c>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.201112604</v>
       </c>
       <c r="B309" s="1">
         <v>301.70864999999998</v>
       </c>
-      <c r="C309" s="2"/>
-      <c r="D309" s="1"/>
-    </row>
-    <row r="310" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="3">
+        <v>301708650</v>
+      </c>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.20164290999999998</v>
       </c>
       <c r="B310" s="1">
         <v>299.93527999999998</v>
       </c>
-      <c r="C310" s="2"/>
-      <c r="D310" s="1"/>
-    </row>
-    <row r="311" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="3">
+        <v>299935280</v>
+      </c>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.20225156799999999</v>
       </c>
       <c r="B311" s="1">
         <v>296.27253999999999</v>
       </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="1"/>
-    </row>
-    <row r="312" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="3">
+        <v>296272540</v>
+      </c>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.20225156799999999</v>
       </c>
       <c r="B312" s="1">
         <v>296.27253999999999</v>
       </c>
-      <c r="C312" s="2"/>
-      <c r="D312" s="1"/>
+      <c r="C312" s="3">
+        <v>296272540</v>
+      </c>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
